--- a/assets/excel/products.xlsx
+++ b/assets/excel/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asad/Documents/Backup/website/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7441314-FADF-C644-A7AD-F6E4508833B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C66F85-4DE2-5F42-A3A1-D71E977FBB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{63A2090F-51D9-F742-9E0B-1B30BEAEF21A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="9">
   <si>
     <t>style</t>
   </si>
@@ -53,112 +53,16 @@
     <t>image</t>
   </si>
   <si>
-    <t>6905.LA</t>
+    <t>Style</t>
   </si>
   <si>
-    <t>Mens Leather Jacket</t>
+    <t>Category</t>
   </si>
   <si>
-    <t>Mens Premium Leather Jacket</t>
+    <t xml:space="preserve">Item Description </t>
   </si>
   <si>
-    <t>assets/images/6905-LA-Front.webp</t>
-  </si>
-  <si>
-    <t>Mens Leather Vest</t>
-  </si>
-  <si>
-    <t>Mens Premium Leather Vest</t>
-  </si>
-  <si>
-    <t>assets/images/6655-00-Front.webp</t>
-  </si>
-  <si>
-    <t>Mens Leather Chaps</t>
-  </si>
-  <si>
-    <t>assets/images/720-00.webp</t>
-  </si>
-  <si>
-    <t>Mens Premium Leather Chaps</t>
-  </si>
-  <si>
-    <t>TW205.20</t>
-  </si>
-  <si>
-    <t>Mens Flannel Shirt</t>
-  </si>
-  <si>
-    <t>assets/images/TW205-20-Front.webp</t>
-  </si>
-  <si>
-    <t>Mens Gray Flannel Shirt</t>
-  </si>
-  <si>
-    <t>Mens Hoodie</t>
-  </si>
-  <si>
-    <t>Mens Skull Hoodie Sweatshirt</t>
-  </si>
-  <si>
-    <t>assets/images/8000-00-Front.webp</t>
-  </si>
-  <si>
-    <t>2151.PL</t>
-  </si>
-  <si>
-    <t>Ladies Clip on Bag</t>
-  </si>
-  <si>
-    <t>assets/images/2151-PL-1.webp</t>
-  </si>
-  <si>
-    <t>Ladies Premium Clip on Bag</t>
-  </si>
-  <si>
-    <t>Mens Full Finger Gloves</t>
-  </si>
-  <si>
-    <t>assets/images/8324.00-1.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mens Full Finger Leather Gloves </t>
-  </si>
-  <si>
-    <t>Biker Chain Wallets</t>
-  </si>
-  <si>
-    <t>assets/images/9083-00-1.webp</t>
-  </si>
-  <si>
-    <t>7 x 3 Biker Chain Wallets</t>
-  </si>
-  <si>
-    <t>5755.AS</t>
-  </si>
-  <si>
-    <t>Accessories</t>
-  </si>
-  <si>
-    <t>4 inch Vest Extenders</t>
-  </si>
-  <si>
-    <t>assets/images/5755-AS.webp</t>
-  </si>
-  <si>
-    <t>6655-00</t>
-  </si>
-  <si>
-    <t>720-00</t>
-  </si>
-  <si>
-    <t>8000-00</t>
-  </si>
-  <si>
-    <t>8324-00</t>
-  </si>
-  <si>
-    <t>9083-00</t>
+    <t>assets/images/image.webp</t>
   </si>
 </sst>
 </file>
@@ -542,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D9F191-DF66-5B48-9A4C-40566E4CA7E4}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>249.99</v>
+        <v>49.99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -594,138 +498,801 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>129.99</v>
+        <v>49.99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>109.99</v>
+        <v>49.99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>49.99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>49.99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>24.99</v>
+        <v>49.99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="2">
+        <v>49.99</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
